--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>215900</v>
+        <v>211500</v>
       </c>
       <c r="E8" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>219700</v>
+        <v>215200</v>
       </c>
       <c r="E9" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E10" s="3">
         <v>-1400</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>347700</v>
+        <v>340600</v>
       </c>
       <c r="E17" s="3">
-        <v>25100</v>
+        <v>24600</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-131800</v>
+        <v>-129100</v>
       </c>
       <c r="E18" s="3">
-        <v>-23500</v>
+        <v>-23000</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-113800</v>
+        <v>-111300</v>
       </c>
       <c r="E21" s="3">
-        <v>-22300</v>
+        <v>-21800</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-132900</v>
+        <v>-130200</v>
       </c>
       <c r="E23" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-131600</v>
+        <v>-128900</v>
       </c>
       <c r="E26" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-131600</v>
+        <v>-128900</v>
       </c>
       <c r="E27" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="E33" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="E35" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>324200</v>
+        <v>317500</v>
       </c>
       <c r="E41" s="3">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="F41" s="3">
-        <v>35100</v>
+        <v>34400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>152700</v>
+        <v>149500</v>
       </c>
       <c r="E44" s="3">
-        <v>57200</v>
+        <v>56000</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>515900</v>
+        <v>505200</v>
       </c>
       <c r="E46" s="3">
-        <v>120800</v>
+        <v>118300</v>
       </c>
       <c r="F46" s="3">
-        <v>35200</v>
+        <v>34400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E47" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F47" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114400</v>
+        <v>112000</v>
       </c>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35500</v>
+        <v>34800</v>
       </c>
       <c r="E49" s="3">
         <v>4200</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>675800</v>
+        <v>661800</v>
       </c>
       <c r="E54" s="3">
-        <v>142100</v>
+        <v>139100</v>
       </c>
       <c r="F54" s="3">
-        <v>41800</v>
+        <v>41000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125900</v>
+        <v>123300</v>
       </c>
       <c r="E58" s="3">
-        <v>45200</v>
+        <v>44300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30500</v>
+        <v>29900</v>
       </c>
       <c r="E59" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>173300</v>
+        <v>169700</v>
       </c>
       <c r="E60" s="3">
-        <v>50900</v>
+        <v>49900</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58100</v>
+        <v>56900</v>
       </c>
       <c r="E61" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235800</v>
+        <v>231000</v>
       </c>
       <c r="E66" s="3">
-        <v>57500</v>
+        <v>56300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85700</v>
+        <v>83900</v>
       </c>
       <c r="E72" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F72" s="3">
         <v>-200</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>439900</v>
+        <v>430800</v>
       </c>
       <c r="E76" s="3">
-        <v>84600</v>
+        <v>82900</v>
       </c>
       <c r="F76" s="3">
-        <v>41700</v>
+        <v>40800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="E81" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-154200</v>
+        <v>-151100</v>
       </c>
       <c r="E89" s="3">
-        <v>-89900</v>
+        <v>-88100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="E91" s="3">
         <v>-3200</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-48400</v>
+        <v>-47400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>480800</v>
+        <v>470900</v>
       </c>
       <c r="E100" s="3">
-        <v>108300</v>
+        <v>106100</v>
       </c>
       <c r="F100" s="3">
-        <v>35300</v>
+        <v>34500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278200</v>
+        <v>272400</v>
       </c>
       <c r="E102" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F102" s="3">
-        <v>35100</v>
+        <v>34400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>211500</v>
+        <v>814900</v>
       </c>
       <c r="E8" s="3">
-        <v>1500</v>
+        <v>197900</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>215200</v>
+        <v>784400</v>
       </c>
       <c r="E9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>201400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-3700</v>
+        <v>30500</v>
       </c>
       <c r="E10" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1300</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,23 +943,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>340600</v>
+        <v>1217500</v>
       </c>
       <c r="E17" s="3">
-        <v>24600</v>
+        <v>318700</v>
       </c>
       <c r="F17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,24 +970,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-129100</v>
+        <v>-402600</v>
       </c>
       <c r="E18" s="3">
-        <v>-23000</v>
+        <v>-120800</v>
       </c>
       <c r="F18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-267200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,24 +1044,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-111300</v>
+        <v>-590100</v>
       </c>
       <c r="E21" s="3">
-        <v>-21800</v>
+        <v>-104200</v>
       </c>
       <c r="F21" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,23 +1074,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1700</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1065,24 +1104,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-130200</v>
+        <v>-669700</v>
       </c>
       <c r="E23" s="3">
-        <v>-23400</v>
+        <v>-121800</v>
       </c>
       <c r="F23" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1300</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-128900</v>
+        <v>-670900</v>
       </c>
       <c r="E26" s="3">
-        <v>-23400</v>
+        <v>-120600</v>
       </c>
       <c r="F26" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-128900</v>
+        <v>-670900</v>
       </c>
       <c r="E27" s="3">
-        <v>-23400</v>
+        <v>-120600</v>
       </c>
       <c r="F27" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,23 +1284,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>267200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-133900</v>
+        <v>-670900</v>
       </c>
       <c r="E33" s="3">
-        <v>-23400</v>
+        <v>-125300</v>
       </c>
       <c r="F33" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-133900</v>
+        <v>-670900</v>
       </c>
       <c r="E35" s="3">
-        <v>-23400</v>
+        <v>-125300</v>
       </c>
       <c r="F35" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>317500</v>
+        <v>235400</v>
       </c>
       <c r="E41" s="3">
-        <v>45000</v>
+        <v>297100</v>
       </c>
       <c r="F41" s="3">
-        <v>34400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>42100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>32200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,9 +1617,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,23 +1647,26 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>149500</v>
+        <v>411100</v>
       </c>
       <c r="E44" s="3">
-        <v>56000</v>
+        <v>139900</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>52400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1582,9 +1677,12 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>505200</v>
+        <v>774600</v>
       </c>
       <c r="E46" s="3">
-        <v>118300</v>
+        <v>472800</v>
       </c>
       <c r="F46" s="3">
-        <v>34400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>110700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>32200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9800</v>
+        <v>12200</v>
       </c>
       <c r="E47" s="3">
-        <v>5200</v>
+        <v>9200</v>
       </c>
       <c r="F47" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112000</v>
+        <v>333000</v>
       </c>
       <c r="E48" s="3">
-        <v>11500</v>
+        <v>104800</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34800</v>
+        <v>319600</v>
       </c>
       <c r="E49" s="3">
-        <v>4200</v>
+        <v>32500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,9 +1887,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>661800</v>
+        <v>1439500</v>
       </c>
       <c r="E54" s="3">
-        <v>139100</v>
+        <v>619300</v>
       </c>
       <c r="F54" s="3">
-        <v>41000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>130200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>38300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,23 +2008,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>96400</v>
       </c>
       <c r="E57" s="3">
-        <v>2400</v>
+        <v>15500</v>
       </c>
       <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>123300</v>
+        <v>220800</v>
       </c>
       <c r="E58" s="3">
-        <v>44300</v>
+        <v>115400</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29900</v>
+        <v>23200</v>
       </c>
       <c r="E59" s="3">
-        <v>3100</v>
+        <v>27900</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,24 +2095,27 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>169700</v>
+        <v>340400</v>
       </c>
       <c r="E60" s="3">
-        <v>49900</v>
+        <v>158800</v>
       </c>
       <c r="F60" s="3">
+        <v>46700</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56900</v>
+        <v>169600</v>
       </c>
       <c r="E61" s="3">
-        <v>5700</v>
+        <v>53200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4400</v>
+        <v>70800</v>
       </c>
       <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,24 +2275,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>231000</v>
+        <v>580700</v>
       </c>
       <c r="E66" s="3">
-        <v>56300</v>
+        <v>216100</v>
       </c>
       <c r="F66" s="3">
+        <v>52700</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,24 +2439,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>83900</v>
+        <v>-753900</v>
       </c>
       <c r="E72" s="3">
-        <v>-23400</v>
+        <v>78500</v>
       </c>
       <c r="F72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>430800</v>
+        <v>858800</v>
       </c>
       <c r="E76" s="3">
-        <v>82900</v>
+        <v>403200</v>
       </c>
       <c r="F76" s="3">
-        <v>40800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>77500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>38200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-133900</v>
+        <v>-670900</v>
       </c>
       <c r="E81" s="3">
-        <v>-23400</v>
+        <v>-125300</v>
       </c>
       <c r="F81" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17000</v>
+        <v>79300</v>
       </c>
       <c r="E83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,24 +2878,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-151100</v>
+        <v>-678300</v>
       </c>
       <c r="E89" s="3">
-        <v>-88100</v>
+        <v>-141400</v>
       </c>
       <c r="F89" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23400</v>
+        <v>-36600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3200</v>
+        <v>-21900</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47400</v>
+        <v>-286700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7400</v>
+        <v>-44300</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>470900</v>
+        <v>903900</v>
       </c>
       <c r="E100" s="3">
-        <v>106100</v>
+        <v>440600</v>
       </c>
       <c r="F100" s="3">
-        <v>34500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>99300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>32300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,50 +3206,56 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>272400</v>
+        <v>-62200</v>
       </c>
       <c r="E102" s="3">
-        <v>10700</v>
+        <v>254900</v>
       </c>
       <c r="F102" s="3">
-        <v>34400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>32200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>814900</v>
+        <v>790000</v>
       </c>
       <c r="E8" s="3">
-        <v>197900</v>
+        <v>191900</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>784400</v>
+        <v>760500</v>
       </c>
       <c r="E9" s="3">
-        <v>201400</v>
+        <v>195300</v>
       </c>
       <c r="F9" s="3">
         <v>2700</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="E10" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F10" s="3">
         <v>-1300</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1217500</v>
+        <v>1179800</v>
       </c>
       <c r="E17" s="3">
-        <v>318700</v>
+        <v>309000</v>
       </c>
       <c r="F17" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-402600</v>
+        <v>-389900</v>
       </c>
       <c r="E18" s="3">
-        <v>-120800</v>
+        <v>-117100</v>
       </c>
       <c r="F18" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-267200</v>
+        <v>-253000</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-590100</v>
+        <v>-566500</v>
       </c>
       <c r="E21" s="3">
-        <v>-104200</v>
+        <v>-101200</v>
       </c>
       <c r="F21" s="3">
-        <v>-20400</v>
+        <v>-19800</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1083,14 +1083,14 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>6800</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-669700</v>
+        <v>-649700</v>
       </c>
       <c r="E23" s="3">
-        <v>-121800</v>
+        <v>-118100</v>
       </c>
       <c r="F23" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1144,10 +1144,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>-6700</v>
       </c>
       <c r="E24" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-670900</v>
+        <v>-642900</v>
       </c>
       <c r="E26" s="3">
-        <v>-120600</v>
+        <v>-117000</v>
       </c>
       <c r="F26" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-670900</v>
+        <v>-642900</v>
       </c>
       <c r="E27" s="3">
-        <v>-120600</v>
+        <v>-117000</v>
       </c>
       <c r="F27" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>267200</v>
+        <v>253000</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-670900</v>
+        <v>-642900</v>
       </c>
       <c r="E33" s="3">
-        <v>-125300</v>
+        <v>-121500</v>
       </c>
       <c r="F33" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-670900</v>
+        <v>-642900</v>
       </c>
       <c r="E35" s="3">
-        <v>-125300</v>
+        <v>-121500</v>
       </c>
       <c r="F35" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>235400</v>
+        <v>227900</v>
       </c>
       <c r="E41" s="3">
-        <v>297100</v>
+        <v>288100</v>
       </c>
       <c r="F41" s="3">
-        <v>42100</v>
+        <v>40900</v>
       </c>
       <c r="G41" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>411100</v>
+        <v>431300</v>
       </c>
       <c r="E44" s="3">
-        <v>139900</v>
+        <v>135700</v>
       </c>
       <c r="F44" s="3">
-        <v>52400</v>
+        <v>50800</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>774600</v>
+        <v>751300</v>
       </c>
       <c r="E46" s="3">
-        <v>472800</v>
+        <v>458500</v>
       </c>
       <c r="F46" s="3">
-        <v>110700</v>
+        <v>107400</v>
       </c>
       <c r="G46" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="E47" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="F47" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G47" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>333000</v>
+        <v>214100</v>
       </c>
       <c r="E48" s="3">
-        <v>104800</v>
+        <v>101700</v>
       </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>319600</v>
+        <v>309300</v>
       </c>
       <c r="E49" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>109100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1439500</v>
+        <v>1395600</v>
       </c>
       <c r="E54" s="3">
-        <v>619300</v>
+        <v>600500</v>
       </c>
       <c r="F54" s="3">
-        <v>130200</v>
+        <v>126200</v>
       </c>
       <c r="G54" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>96400</v>
+        <v>34600</v>
       </c>
       <c r="E57" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="F57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>220800</v>
+        <v>223800</v>
       </c>
       <c r="E58" s="3">
-        <v>115400</v>
+        <v>111900</v>
       </c>
       <c r="F58" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23200</v>
+        <v>71300</v>
       </c>
       <c r="E59" s="3">
-        <v>27900</v>
+        <v>27100</v>
       </c>
       <c r="F59" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>340400</v>
+        <v>329600</v>
       </c>
       <c r="E60" s="3">
-        <v>158800</v>
+        <v>154000</v>
       </c>
       <c r="F60" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>169600</v>
+        <v>165200</v>
       </c>
       <c r="E61" s="3">
-        <v>53200</v>
+        <v>51600</v>
       </c>
       <c r="F61" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>70800</v>
+        <v>60000</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>580700</v>
+        <v>554900</v>
       </c>
       <c r="E66" s="3">
-        <v>216100</v>
+        <v>209600</v>
       </c>
       <c r="F66" s="3">
-        <v>52700</v>
+        <v>51100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-753900</v>
+        <v>-225200</v>
       </c>
       <c r="E72" s="3">
-        <v>78500</v>
+        <v>76200</v>
       </c>
       <c r="F72" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>858800</v>
+        <v>840700</v>
       </c>
       <c r="E76" s="3">
-        <v>403200</v>
+        <v>390900</v>
       </c>
       <c r="F76" s="3">
-        <v>77500</v>
+        <v>75200</v>
       </c>
       <c r="G76" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-670900</v>
+        <v>-642900</v>
       </c>
       <c r="E81" s="3">
-        <v>-125300</v>
+        <v>-121500</v>
       </c>
       <c r="F81" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79300</v>
+        <v>76600</v>
       </c>
       <c r="E83" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-678300</v>
+        <v>-658300</v>
       </c>
       <c r="E89" s="3">
-        <v>-141400</v>
+        <v>-137100</v>
       </c>
       <c r="F89" s="3">
-        <v>-82400</v>
+        <v>-79900</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36600</v>
+        <v>-34900</v>
       </c>
       <c r="E91" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-286700</v>
+        <v>-277600</v>
       </c>
       <c r="E94" s="3">
-        <v>-44300</v>
+        <v>-43000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>903900</v>
+        <v>876600</v>
       </c>
       <c r="E100" s="3">
-        <v>440600</v>
+        <v>427300</v>
       </c>
       <c r="F100" s="3">
-        <v>99300</v>
+        <v>96300</v>
       </c>
       <c r="G100" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62200</v>
+        <v>-60200</v>
       </c>
       <c r="E102" s="3">
-        <v>254900</v>
+        <v>247200</v>
       </c>
       <c r="F102" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="G102" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>790000</v>
+        <v>782200</v>
       </c>
       <c r="E8" s="3">
-        <v>191900</v>
+        <v>190000</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>760500</v>
+        <v>753000</v>
       </c>
       <c r="E9" s="3">
-        <v>195300</v>
+        <v>193400</v>
       </c>
       <c r="F9" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="E10" s="3">
         <v>-3400</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1179800</v>
+        <v>1168300</v>
       </c>
       <c r="E17" s="3">
-        <v>309000</v>
+        <v>306000</v>
       </c>
       <c r="F17" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-389900</v>
+        <v>-386000</v>
       </c>
       <c r="E18" s="3">
-        <v>-117100</v>
+        <v>-116000</v>
       </c>
       <c r="F18" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-253000</v>
+        <v>-250500</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-566500</v>
+        <v>-563000</v>
       </c>
       <c r="E21" s="3">
-        <v>-101200</v>
+        <v>-100600</v>
       </c>
       <c r="F21" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E22" s="3">
         <v>1500</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-649700</v>
+        <v>-643300</v>
       </c>
       <c r="E23" s="3">
-        <v>-118100</v>
+        <v>-117000</v>
       </c>
       <c r="F23" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="E26" s="3">
-        <v>-117000</v>
+        <v>-115800</v>
       </c>
       <c r="F26" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="E27" s="3">
-        <v>-117000</v>
+        <v>-115800</v>
       </c>
       <c r="F27" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>253000</v>
+        <v>250500</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="E33" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="F33" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="E35" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="F35" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>227900</v>
+        <v>225600</v>
       </c>
       <c r="E41" s="3">
-        <v>288100</v>
+        <v>285200</v>
       </c>
       <c r="F41" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="G41" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>431300</v>
+        <v>427000</v>
       </c>
       <c r="E44" s="3">
-        <v>135700</v>
+        <v>134300</v>
       </c>
       <c r="F44" s="3">
-        <v>50800</v>
+        <v>50300</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>751300</v>
+        <v>743900</v>
       </c>
       <c r="E46" s="3">
-        <v>458500</v>
+        <v>454000</v>
       </c>
       <c r="F46" s="3">
-        <v>107400</v>
+        <v>106300</v>
       </c>
       <c r="G46" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E47" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="F47" s="3">
         <v>4700</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>214100</v>
+        <v>212000</v>
       </c>
       <c r="E48" s="3">
-        <v>101700</v>
+        <v>100700</v>
       </c>
       <c r="F48" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>309300</v>
+        <v>306300</v>
       </c>
       <c r="E49" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109100</v>
+        <v>108100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1395600</v>
+        <v>1381900</v>
       </c>
       <c r="E54" s="3">
-        <v>600500</v>
+        <v>594600</v>
       </c>
       <c r="F54" s="3">
-        <v>126200</v>
+        <v>125000</v>
       </c>
       <c r="G54" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,10 +2015,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="E57" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F57" s="3">
         <v>2200</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223800</v>
+        <v>221600</v>
       </c>
       <c r="E58" s="3">
-        <v>111900</v>
+        <v>110800</v>
       </c>
       <c r="F58" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71300</v>
+        <v>70600</v>
       </c>
       <c r="E59" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="F59" s="3">
         <v>2800</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>329600</v>
+        <v>326400</v>
       </c>
       <c r="E60" s="3">
-        <v>154000</v>
+        <v>152500</v>
       </c>
       <c r="F60" s="3">
-        <v>45300</v>
+        <v>44800</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>165200</v>
+        <v>163600</v>
       </c>
       <c r="E61" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="F61" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="E62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>554900</v>
+        <v>549500</v>
       </c>
       <c r="E66" s="3">
-        <v>209600</v>
+        <v>207500</v>
       </c>
       <c r="F66" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-225200</v>
+        <v>-223000</v>
       </c>
       <c r="E72" s="3">
-        <v>76200</v>
+        <v>75400</v>
       </c>
       <c r="F72" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>840700</v>
+        <v>832400</v>
       </c>
       <c r="E76" s="3">
-        <v>390900</v>
+        <v>387100</v>
       </c>
       <c r="F76" s="3">
-        <v>75200</v>
+        <v>74400</v>
       </c>
       <c r="G76" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="E81" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="F81" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="E83" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-658300</v>
+        <v>-651800</v>
       </c>
       <c r="E89" s="3">
-        <v>-137100</v>
+        <v>-135700</v>
       </c>
       <c r="F89" s="3">
-        <v>-79900</v>
+        <v>-79100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="E91" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-277600</v>
+        <v>-274900</v>
       </c>
       <c r="E94" s="3">
-        <v>-43000</v>
+        <v>-42600</v>
       </c>
       <c r="F94" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>876600</v>
+        <v>868000</v>
       </c>
       <c r="E100" s="3">
-        <v>427300</v>
+        <v>423100</v>
       </c>
       <c r="F100" s="3">
-        <v>96300</v>
+        <v>95300</v>
       </c>
       <c r="G100" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-60200</v>
+        <v>-59600</v>
       </c>
       <c r="E102" s="3">
-        <v>247200</v>
+        <v>244800</v>
       </c>
       <c r="F102" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G102" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>782200</v>
+        <v>796400</v>
       </c>
       <c r="E8" s="3">
-        <v>190000</v>
+        <v>193400</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>753000</v>
+        <v>766700</v>
       </c>
       <c r="E9" s="3">
-        <v>193400</v>
+        <v>196900</v>
       </c>
       <c r="F9" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="E10" s="3">
         <v>-3400</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1168300</v>
+        <v>1189400</v>
       </c>
       <c r="E17" s="3">
-        <v>306000</v>
+        <v>311500</v>
       </c>
       <c r="F17" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-386000</v>
+        <v>-393000</v>
       </c>
       <c r="E18" s="3">
-        <v>-116000</v>
+        <v>-118100</v>
       </c>
       <c r="F18" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-250500</v>
+        <v>-255100</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-563000</v>
+        <v>-571400</v>
       </c>
       <c r="E21" s="3">
-        <v>-100600</v>
+        <v>-102100</v>
       </c>
       <c r="F21" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3">
         <v>1500</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-643300</v>
+        <v>-654900</v>
       </c>
       <c r="E23" s="3">
-        <v>-117000</v>
+        <v>-119100</v>
       </c>
       <c r="F23" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1144,10 +1144,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="E24" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="E26" s="3">
-        <v>-115800</v>
+        <v>-117900</v>
       </c>
       <c r="F26" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="E27" s="3">
-        <v>-115800</v>
+        <v>-117900</v>
       </c>
       <c r="F27" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>250500</v>
+        <v>255100</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="E33" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="F33" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="E35" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="F35" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225600</v>
+        <v>229700</v>
       </c>
       <c r="E41" s="3">
-        <v>285200</v>
+        <v>290400</v>
       </c>
       <c r="F41" s="3">
-        <v>40500</v>
+        <v>41200</v>
       </c>
       <c r="G41" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>427000</v>
+        <v>434800</v>
       </c>
       <c r="E44" s="3">
-        <v>134300</v>
+        <v>136800</v>
       </c>
       <c r="F44" s="3">
-        <v>50300</v>
+        <v>51200</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>743900</v>
+        <v>757400</v>
       </c>
       <c r="E46" s="3">
-        <v>454000</v>
+        <v>462200</v>
       </c>
       <c r="F46" s="3">
-        <v>106300</v>
+        <v>108200</v>
       </c>
       <c r="G46" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="E47" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F47" s="3">
         <v>4700</v>
       </c>
       <c r="G47" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>212000</v>
+        <v>215800</v>
       </c>
       <c r="E48" s="3">
-        <v>100700</v>
+        <v>102500</v>
       </c>
       <c r="F48" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>306300</v>
+        <v>311900</v>
       </c>
       <c r="E49" s="3">
-        <v>31200</v>
+        <v>31800</v>
       </c>
       <c r="F49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108100</v>
+        <v>110000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1381900</v>
+        <v>1406900</v>
       </c>
       <c r="E54" s="3">
-        <v>594600</v>
+        <v>605400</v>
       </c>
       <c r="F54" s="3">
-        <v>125000</v>
+        <v>127300</v>
       </c>
       <c r="G54" s="3">
-        <v>36800</v>
+        <v>37500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,10 +2015,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34200</v>
+        <v>34800</v>
       </c>
       <c r="E57" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="F57" s="3">
         <v>2200</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>221600</v>
+        <v>225600</v>
       </c>
       <c r="E58" s="3">
-        <v>110800</v>
+        <v>112800</v>
       </c>
       <c r="F58" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>70600</v>
+        <v>71800</v>
       </c>
       <c r="E59" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>326400</v>
+        <v>332300</v>
       </c>
       <c r="E60" s="3">
-        <v>152500</v>
+        <v>155200</v>
       </c>
       <c r="F60" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163600</v>
+        <v>166600</v>
       </c>
       <c r="E61" s="3">
-        <v>51100</v>
+        <v>52000</v>
       </c>
       <c r="F61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>549500</v>
+        <v>559400</v>
       </c>
       <c r="E66" s="3">
-        <v>207500</v>
+        <v>211300</v>
       </c>
       <c r="F66" s="3">
-        <v>50600</v>
+        <v>51500</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-223000</v>
+        <v>-227000</v>
       </c>
       <c r="E72" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="F72" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>832400</v>
+        <v>847500</v>
       </c>
       <c r="E76" s="3">
-        <v>387100</v>
+        <v>394100</v>
       </c>
       <c r="F76" s="3">
-        <v>74400</v>
+        <v>75800</v>
       </c>
       <c r="G76" s="3">
-        <v>36700</v>
+        <v>37400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="E81" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="F81" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75900</v>
+        <v>77300</v>
       </c>
       <c r="E83" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-651800</v>
+        <v>-663600</v>
       </c>
       <c r="E89" s="3">
-        <v>-135700</v>
+        <v>-138200</v>
       </c>
       <c r="F89" s="3">
-        <v>-79100</v>
+        <v>-80600</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34500</v>
+        <v>-35100</v>
       </c>
       <c r="E91" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274900</v>
+        <v>-279800</v>
       </c>
       <c r="E94" s="3">
-        <v>-42600</v>
+        <v>-43300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>868000</v>
+        <v>883700</v>
       </c>
       <c r="E100" s="3">
-        <v>423100</v>
+        <v>430700</v>
       </c>
       <c r="F100" s="3">
-        <v>95300</v>
+        <v>97100</v>
       </c>
       <c r="G100" s="3">
-        <v>31000</v>
+        <v>31600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59600</v>
+        <v>-60700</v>
       </c>
       <c r="E102" s="3">
-        <v>244800</v>
+        <v>249200</v>
       </c>
       <c r="F102" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G102" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>796400</v>
+        <v>1549300</v>
       </c>
       <c r="E8" s="3">
-        <v>193400</v>
+        <v>813200</v>
       </c>
       <c r="F8" s="3">
-        <v>1400</v>
+        <v>201300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>766700</v>
+        <v>1524100</v>
       </c>
       <c r="E9" s="3">
-        <v>196900</v>
+        <v>784300</v>
       </c>
       <c r="F9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>204800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,24 +774,27 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29700</v>
+        <v>25100</v>
       </c>
       <c r="E10" s="3">
-        <v>-3400</v>
+        <v>28900</v>
       </c>
       <c r="F10" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>384900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>55500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>64100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,26 +969,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1189400</v>
+        <v>2378700</v>
       </c>
       <c r="E17" s="3">
-        <v>311500</v>
+        <v>1201500</v>
       </c>
       <c r="F17" s="3">
-        <v>22500</v>
+        <v>324200</v>
       </c>
       <c r="G17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,27 +999,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-393000</v>
+        <v>-829500</v>
       </c>
       <c r="E18" s="3">
-        <v>-118100</v>
+        <v>-388200</v>
       </c>
       <c r="F18" s="3">
-        <v>-21100</v>
+        <v>-122900</v>
       </c>
       <c r="G18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-255100</v>
+        <v>243600</v>
       </c>
       <c r="E20" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,27 +1080,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-571400</v>
+        <v>-111200</v>
       </c>
       <c r="E21" s="3">
-        <v>-102100</v>
+        <v>-567300</v>
       </c>
       <c r="F21" s="3">
-        <v>-20000</v>
+        <v>-106000</v>
       </c>
       <c r="G21" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,26 +1113,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6800</v>
+        <v>66200</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>11200</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1107,27 +1146,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-654900</v>
+        <v>-652000</v>
       </c>
       <c r="E23" s="3">
-        <v>-119100</v>
+        <v>-659400</v>
       </c>
       <c r="F23" s="3">
-        <v>-21400</v>
+        <v>-123900</v>
       </c>
       <c r="G23" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6800</v>
+        <v>-9100</v>
       </c>
       <c r="E24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,27 +1245,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-648100</v>
+        <v>-642900</v>
       </c>
       <c r="E26" s="3">
-        <v>-117900</v>
+        <v>-656700</v>
       </c>
       <c r="F26" s="3">
-        <v>-21400</v>
+        <v>-122700</v>
       </c>
       <c r="G26" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,27 +1278,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-648100</v>
+        <v>-642900</v>
       </c>
       <c r="E27" s="3">
-        <v>-117900</v>
+        <v>-656700</v>
       </c>
       <c r="F27" s="3">
-        <v>-21400</v>
+        <v>-122700</v>
       </c>
       <c r="G27" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,26 +1344,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-230500</v>
       </c>
       <c r="E29" s="3">
-        <v>-4500</v>
+        <v>-17600</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>255100</v>
+        <v>-243600</v>
       </c>
       <c r="E32" s="3">
+        <v>260000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,27 +1476,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-648100</v>
+        <v>-873400</v>
       </c>
       <c r="E33" s="3">
-        <v>-122500</v>
+        <v>-674400</v>
       </c>
       <c r="F33" s="3">
-        <v>-21400</v>
+        <v>-127400</v>
       </c>
       <c r="G33" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,27 +1542,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-648100</v>
+        <v>-873400</v>
       </c>
       <c r="E35" s="3">
-        <v>-122500</v>
+        <v>-674400</v>
       </c>
       <c r="F35" s="3">
-        <v>-21400</v>
+        <v>-127400</v>
       </c>
       <c r="G35" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229700</v>
+        <v>305100</v>
       </c>
       <c r="E41" s="3">
-        <v>290400</v>
+        <v>239000</v>
       </c>
       <c r="F41" s="3">
-        <v>41200</v>
+        <v>302200</v>
       </c>
       <c r="G41" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>42900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>32700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,9 +1709,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,26 +1742,29 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>434800</v>
+        <v>288600</v>
       </c>
       <c r="E44" s="3">
-        <v>136800</v>
+        <v>452400</v>
       </c>
       <c r="F44" s="3">
-        <v>51200</v>
+        <v>142300</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>53300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1680,56 +1775,62 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>81700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>757400</v>
+        <v>745100</v>
       </c>
       <c r="E46" s="3">
-        <v>462200</v>
+        <v>788000</v>
       </c>
       <c r="F46" s="3">
-        <v>108200</v>
+        <v>480900</v>
       </c>
       <c r="G46" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>112600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>32800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11900</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>9000</v>
+        <v>12400</v>
       </c>
       <c r="F47" s="3">
-        <v>4700</v>
+        <v>9300</v>
       </c>
       <c r="G47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>215800</v>
+        <v>299700</v>
       </c>
       <c r="E48" s="3">
-        <v>102500</v>
+        <v>339000</v>
       </c>
       <c r="F48" s="3">
-        <v>10500</v>
+        <v>106600</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>311900</v>
+        <v>20300</v>
       </c>
       <c r="E49" s="3">
-        <v>31800</v>
+        <v>324500</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>33100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>110000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1406900</v>
+        <v>1073200</v>
       </c>
       <c r="E54" s="3">
-        <v>605400</v>
+        <v>1463900</v>
       </c>
       <c r="F54" s="3">
-        <v>127300</v>
+        <v>629900</v>
       </c>
       <c r="G54" s="3">
-        <v>37500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>132400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>39000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,26 +2138,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34800</v>
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>15100</v>
+        <v>36300</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>15700</v>
       </c>
       <c r="G57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>225600</v>
+        <v>239500</v>
       </c>
       <c r="E58" s="3">
-        <v>112800</v>
+        <v>234700</v>
       </c>
       <c r="F58" s="3">
-        <v>40500</v>
+        <v>117400</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>42200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71800</v>
+        <v>162800</v>
       </c>
       <c r="E59" s="3">
-        <v>27300</v>
+        <v>74800</v>
       </c>
       <c r="F59" s="3">
-        <v>2900</v>
+        <v>28400</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,27 +2234,30 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>332300</v>
+        <v>424800</v>
       </c>
       <c r="E60" s="3">
-        <v>155200</v>
+        <v>345700</v>
       </c>
       <c r="F60" s="3">
-        <v>45600</v>
+        <v>161500</v>
       </c>
       <c r="G60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>166600</v>
+        <v>546800</v>
       </c>
       <c r="E61" s="3">
-        <v>52000</v>
+        <v>173300</v>
       </c>
       <c r="F61" s="3">
-        <v>5200</v>
+        <v>54100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60500</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>4000</v>
+        <v>63000</v>
       </c>
       <c r="F62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,27 +2432,30 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>559400</v>
+        <v>983100</v>
       </c>
       <c r="E66" s="3">
-        <v>211300</v>
+        <v>582100</v>
       </c>
       <c r="F66" s="3">
-        <v>51500</v>
+        <v>219800</v>
       </c>
       <c r="G66" s="3">
+        <v>53600</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,27 +2612,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-227000</v>
+        <v>-1064600</v>
       </c>
       <c r="E72" s="3">
-        <v>76800</v>
+        <v>-236200</v>
       </c>
       <c r="F72" s="3">
-        <v>-21400</v>
+        <v>79900</v>
       </c>
       <c r="G72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>847500</v>
+        <v>90100</v>
       </c>
       <c r="E76" s="3">
-        <v>394100</v>
+        <v>881800</v>
       </c>
       <c r="F76" s="3">
-        <v>75800</v>
+        <v>410100</v>
       </c>
       <c r="G76" s="3">
-        <v>37400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>78900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>38900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,27 +2848,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-648100</v>
+        <v>-873400</v>
       </c>
       <c r="E81" s="3">
-        <v>-122500</v>
+        <v>-674400</v>
       </c>
       <c r="F81" s="3">
-        <v>-21400</v>
+        <v>-127400</v>
       </c>
       <c r="G81" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>77300</v>
+        <v>471700</v>
       </c>
       <c r="E83" s="3">
-        <v>15600</v>
+        <v>80400</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>16200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,27 +3094,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-663600</v>
+        <v>-310700</v>
       </c>
       <c r="E89" s="3">
-        <v>-138200</v>
+        <v>-690500</v>
       </c>
       <c r="F89" s="3">
-        <v>-80600</v>
+        <v>-143800</v>
       </c>
       <c r="G89" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35100</v>
+        <v>-41700</v>
       </c>
       <c r="E91" s="3">
-        <v>-21400</v>
+        <v>-36600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-22200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-279800</v>
+        <v>-93700</v>
       </c>
       <c r="E94" s="3">
-        <v>-43300</v>
+        <v>-291200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6800</v>
+        <v>-45100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>883700</v>
+        <v>471900</v>
       </c>
       <c r="E100" s="3">
-        <v>430700</v>
+        <v>919500</v>
       </c>
       <c r="F100" s="3">
-        <v>97100</v>
+        <v>448200</v>
       </c>
       <c r="G100" s="3">
-        <v>31600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>101000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>32900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,17 +3454,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3236,29 +3484,32 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-60700</v>
+        <v>81500</v>
       </c>
       <c r="E102" s="3">
-        <v>249200</v>
+        <v>-63200</v>
       </c>
       <c r="F102" s="3">
-        <v>9700</v>
+        <v>259300</v>
       </c>
       <c r="G102" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>32700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1549300</v>
+        <v>1582300</v>
       </c>
       <c r="E8" s="3">
-        <v>813200</v>
+        <v>830600</v>
       </c>
       <c r="F8" s="3">
-        <v>201300</v>
+        <v>205600</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1524100</v>
+        <v>1556700</v>
       </c>
       <c r="E9" s="3">
-        <v>784300</v>
+        <v>801100</v>
       </c>
       <c r="F9" s="3">
-        <v>204800</v>
+        <v>209200</v>
       </c>
       <c r="G9" s="3">
         <v>2800</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="E10" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="F10" s="3">
         <v>-3600</v>
       </c>
       <c r="G10" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>384900</v>
+        <v>393100</v>
       </c>
       <c r="E14" s="3">
-        <v>55500</v>
+        <v>56700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62500</v>
+        <v>63800</v>
       </c>
       <c r="E15" s="3">
-        <v>64100</v>
+        <v>65500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2378700</v>
+        <v>2429500</v>
       </c>
       <c r="E17" s="3">
-        <v>1201500</v>
+        <v>1227100</v>
       </c>
       <c r="F17" s="3">
-        <v>324200</v>
+        <v>331100</v>
       </c>
       <c r="G17" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-829500</v>
+        <v>-847200</v>
       </c>
       <c r="E18" s="3">
-        <v>-388200</v>
+        <v>-396500</v>
       </c>
       <c r="F18" s="3">
-        <v>-122900</v>
+        <v>-125500</v>
       </c>
       <c r="G18" s="3">
-        <v>-21900</v>
+        <v>-22400</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>243600</v>
+        <v>248800</v>
       </c>
       <c r="E20" s="3">
-        <v>-260000</v>
+        <v>-265500</v>
       </c>
       <c r="F20" s="3">
         <v>600</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-111200</v>
+        <v>-116600</v>
       </c>
       <c r="E21" s="3">
-        <v>-567300</v>
+        <v>-580000</v>
       </c>
       <c r="F21" s="3">
-        <v>-106000</v>
+        <v>-108400</v>
       </c>
       <c r="G21" s="3">
-        <v>-20700</v>
+        <v>-21200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66200</v>
+        <v>67600</v>
       </c>
       <c r="E22" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-652000</v>
+        <v>-665900</v>
       </c>
       <c r="E23" s="3">
-        <v>-659400</v>
+        <v>-673500</v>
       </c>
       <c r="F23" s="3">
-        <v>-123900</v>
+        <v>-126500</v>
       </c>
       <c r="G23" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="E24" s="3">
         <v>-2700</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-642900</v>
+        <v>-656600</v>
       </c>
       <c r="E26" s="3">
-        <v>-656700</v>
+        <v>-670800</v>
       </c>
       <c r="F26" s="3">
-        <v>-122700</v>
+        <v>-125300</v>
       </c>
       <c r="G26" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-642900</v>
+        <v>-656600</v>
       </c>
       <c r="E27" s="3">
-        <v>-656700</v>
+        <v>-670800</v>
       </c>
       <c r="F27" s="3">
-        <v>-122700</v>
+        <v>-125300</v>
       </c>
       <c r="G27" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1354,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-230500</v>
+        <v>-235400</v>
       </c>
       <c r="E29" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="F29" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-243600</v>
+        <v>-248800</v>
       </c>
       <c r="E32" s="3">
-        <v>260000</v>
+        <v>265500</v>
       </c>
       <c r="F32" s="3">
         <v>-600</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-873400</v>
+        <v>-892000</v>
       </c>
       <c r="E33" s="3">
-        <v>-674400</v>
+        <v>-688800</v>
       </c>
       <c r="F33" s="3">
-        <v>-127400</v>
+        <v>-130100</v>
       </c>
       <c r="G33" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-873400</v>
+        <v>-892000</v>
       </c>
       <c r="E35" s="3">
-        <v>-674400</v>
+        <v>-688800</v>
       </c>
       <c r="F35" s="3">
-        <v>-127400</v>
+        <v>-130100</v>
       </c>
       <c r="G35" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305100</v>
+        <v>311600</v>
       </c>
       <c r="E41" s="3">
-        <v>239000</v>
+        <v>244100</v>
       </c>
       <c r="F41" s="3">
-        <v>302200</v>
+        <v>308600</v>
       </c>
       <c r="G41" s="3">
-        <v>42900</v>
+        <v>43800</v>
       </c>
       <c r="H41" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>288600</v>
+        <v>294700</v>
       </c>
       <c r="E44" s="3">
-        <v>452400</v>
+        <v>462000</v>
       </c>
       <c r="F44" s="3">
-        <v>142300</v>
+        <v>145400</v>
       </c>
       <c r="G44" s="3">
-        <v>53300</v>
+        <v>54500</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>745100</v>
+        <v>761000</v>
       </c>
       <c r="E46" s="3">
-        <v>788000</v>
+        <v>804900</v>
       </c>
       <c r="F46" s="3">
-        <v>480900</v>
+        <v>491200</v>
       </c>
       <c r="G46" s="3">
-        <v>112600</v>
+        <v>115000</v>
       </c>
       <c r="H46" s="3">
-        <v>32800</v>
+        <v>33500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E47" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="F47" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H47" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>299700</v>
+        <v>306100</v>
       </c>
       <c r="E48" s="3">
-        <v>339000</v>
+        <v>346200</v>
       </c>
       <c r="F48" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="G48" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="E49" s="3">
-        <v>324500</v>
+        <v>331400</v>
       </c>
       <c r="F49" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="G49" s="3">
         <v>4000</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1073200</v>
+        <v>1096100</v>
       </c>
       <c r="E54" s="3">
-        <v>1463900</v>
+        <v>1495100</v>
       </c>
       <c r="F54" s="3">
-        <v>629900</v>
+        <v>643400</v>
       </c>
       <c r="G54" s="3">
-        <v>132400</v>
+        <v>135200</v>
       </c>
       <c r="H54" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="E57" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="F57" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="G57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239500</v>
+        <v>244600</v>
       </c>
       <c r="E58" s="3">
-        <v>234700</v>
+        <v>239700</v>
       </c>
       <c r="F58" s="3">
-        <v>117400</v>
+        <v>119900</v>
       </c>
       <c r="G58" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>162800</v>
+        <v>166200</v>
       </c>
       <c r="E59" s="3">
-        <v>74800</v>
+        <v>76400</v>
       </c>
       <c r="F59" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="G59" s="3">
         <v>3000</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>424800</v>
+        <v>433800</v>
       </c>
       <c r="E60" s="3">
-        <v>345700</v>
+        <v>353100</v>
       </c>
       <c r="F60" s="3">
-        <v>161500</v>
+        <v>165000</v>
       </c>
       <c r="G60" s="3">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>546800</v>
+        <v>558500</v>
       </c>
       <c r="E61" s="3">
-        <v>173300</v>
+        <v>177000</v>
       </c>
       <c r="F61" s="3">
-        <v>54100</v>
+        <v>55300</v>
       </c>
       <c r="G61" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="E62" s="3">
-        <v>63000</v>
+        <v>64300</v>
       </c>
       <c r="F62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>983100</v>
+        <v>1004100</v>
       </c>
       <c r="E66" s="3">
-        <v>582100</v>
+        <v>594500</v>
       </c>
       <c r="F66" s="3">
-        <v>219800</v>
+        <v>224500</v>
       </c>
       <c r="G66" s="3">
-        <v>53600</v>
+        <v>54700</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1064600</v>
+        <v>-1087300</v>
       </c>
       <c r="E72" s="3">
-        <v>-236200</v>
+        <v>-241300</v>
       </c>
       <c r="F72" s="3">
-        <v>79900</v>
+        <v>81600</v>
       </c>
       <c r="G72" s="3">
-        <v>-22300</v>
+        <v>-22700</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90100</v>
+        <v>92000</v>
       </c>
       <c r="E76" s="3">
-        <v>881800</v>
+        <v>900700</v>
       </c>
       <c r="F76" s="3">
-        <v>410100</v>
+        <v>418800</v>
       </c>
       <c r="G76" s="3">
-        <v>78900</v>
+        <v>80500</v>
       </c>
       <c r="H76" s="3">
-        <v>38900</v>
+        <v>39700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-873400</v>
+        <v>-892000</v>
       </c>
       <c r="E81" s="3">
-        <v>-674400</v>
+        <v>-688800</v>
       </c>
       <c r="F81" s="3">
-        <v>-127400</v>
+        <v>-130100</v>
       </c>
       <c r="G81" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>471700</v>
+        <v>481800</v>
       </c>
       <c r="E83" s="3">
-        <v>80400</v>
+        <v>82100</v>
       </c>
       <c r="F83" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-310700</v>
+        <v>-317300</v>
       </c>
       <c r="E89" s="3">
-        <v>-690500</v>
+        <v>-705200</v>
       </c>
       <c r="F89" s="3">
-        <v>-143800</v>
+        <v>-146800</v>
       </c>
       <c r="G89" s="3">
-        <v>-83800</v>
+        <v>-85600</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41700</v>
+        <v>-42600</v>
       </c>
       <c r="E91" s="3">
-        <v>-36600</v>
+        <v>-37300</v>
       </c>
       <c r="F91" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93700</v>
+        <v>-95700</v>
       </c>
       <c r="E94" s="3">
-        <v>-291200</v>
+        <v>-297400</v>
       </c>
       <c r="F94" s="3">
-        <v>-45100</v>
+        <v>-46100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>471900</v>
+        <v>482000</v>
       </c>
       <c r="E100" s="3">
-        <v>919500</v>
+        <v>939100</v>
       </c>
       <c r="F100" s="3">
-        <v>448200</v>
+        <v>457700</v>
       </c>
       <c r="G100" s="3">
-        <v>101000</v>
+        <v>103100</v>
       </c>
       <c r="H100" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>81500</v>
+        <v>83300</v>
       </c>
       <c r="E102" s="3">
-        <v>-63200</v>
+        <v>-64500</v>
       </c>
       <c r="F102" s="3">
-        <v>259300</v>
+        <v>264800</v>
       </c>
       <c r="G102" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H102" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CZOO_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1582300</v>
+        <v>1549000</v>
       </c>
       <c r="E8" s="3">
-        <v>830600</v>
+        <v>813100</v>
       </c>
       <c r="F8" s="3">
-        <v>205600</v>
+        <v>201200</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1556700</v>
+        <v>1523900</v>
       </c>
       <c r="E9" s="3">
-        <v>801100</v>
+        <v>784200</v>
       </c>
       <c r="F9" s="3">
-        <v>209200</v>
+        <v>204800</v>
       </c>
       <c r="G9" s="3">
         <v>2800</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="E10" s="3">
-        <v>29500</v>
+        <v>28900</v>
       </c>
       <c r="F10" s="3">
         <v>-3600</v>
       </c>
       <c r="G10" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>393100</v>
+        <v>384800</v>
       </c>
       <c r="E14" s="3">
-        <v>56700</v>
+        <v>55500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63800</v>
+        <v>62500</v>
       </c>
       <c r="E15" s="3">
-        <v>65500</v>
+        <v>64100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2429500</v>
+        <v>2378300</v>
       </c>
       <c r="E17" s="3">
-        <v>1227100</v>
+        <v>1201300</v>
       </c>
       <c r="F17" s="3">
-        <v>331100</v>
+        <v>324100</v>
       </c>
       <c r="G17" s="3">
-        <v>23900</v>
+        <v>23400</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-847200</v>
+        <v>-829300</v>
       </c>
       <c r="E18" s="3">
-        <v>-396500</v>
+        <v>-388200</v>
       </c>
       <c r="F18" s="3">
-        <v>-125500</v>
+        <v>-122900</v>
       </c>
       <c r="G18" s="3">
-        <v>-22400</v>
+        <v>-21900</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>248800</v>
+        <v>243600</v>
       </c>
       <c r="E20" s="3">
-        <v>-265500</v>
+        <v>-259900</v>
       </c>
       <c r="F20" s="3">
         <v>600</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-116600</v>
+        <v>-113700</v>
       </c>
       <c r="E21" s="3">
-        <v>-580000</v>
+        <v>-567700</v>
       </c>
       <c r="F21" s="3">
-        <v>-108400</v>
+        <v>-106100</v>
       </c>
       <c r="G21" s="3">
-        <v>-21200</v>
+        <v>-20800</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67600</v>
+        <v>66200</v>
       </c>
       <c r="E22" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-665900</v>
+        <v>-651900</v>
       </c>
       <c r="E23" s="3">
-        <v>-673500</v>
+        <v>-659300</v>
       </c>
       <c r="F23" s="3">
-        <v>-126500</v>
+        <v>-123900</v>
       </c>
       <c r="G23" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="E24" s="3">
         <v>-2700</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-642800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-656600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-670800</v>
-      </c>
       <c r="F26" s="3">
-        <v>-125300</v>
+        <v>-122700</v>
       </c>
       <c r="G26" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-642800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-656600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-670800</v>
-      </c>
       <c r="F27" s="3">
-        <v>-125300</v>
+        <v>-122700</v>
       </c>
       <c r="G27" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1354,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-235400</v>
+        <v>-230500</v>
       </c>
       <c r="E29" s="3">
-        <v>-18000</v>
+        <v>-17600</v>
       </c>
       <c r="F29" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-248800</v>
+        <v>-243600</v>
       </c>
       <c r="E32" s="3">
-        <v>265500</v>
+        <v>259900</v>
       </c>
       <c r="F32" s="3">
         <v>-600</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-892000</v>
+        <v>-873200</v>
       </c>
       <c r="E33" s="3">
-        <v>-688800</v>
+        <v>-674300</v>
       </c>
       <c r="F33" s="3">
-        <v>-130100</v>
+        <v>-127400</v>
       </c>
       <c r="G33" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-892000</v>
+        <v>-873200</v>
       </c>
       <c r="E35" s="3">
-        <v>-688800</v>
+        <v>-674300</v>
       </c>
       <c r="F35" s="3">
-        <v>-130100</v>
+        <v>-127400</v>
       </c>
       <c r="G35" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>311600</v>
+        <v>305000</v>
       </c>
       <c r="E41" s="3">
-        <v>244100</v>
+        <v>239000</v>
       </c>
       <c r="F41" s="3">
-        <v>308600</v>
+        <v>302100</v>
       </c>
       <c r="G41" s="3">
-        <v>43800</v>
+        <v>42800</v>
       </c>
       <c r="H41" s="3">
-        <v>33400</v>
+        <v>32700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>294700</v>
+        <v>288500</v>
       </c>
       <c r="E44" s="3">
-        <v>462000</v>
+        <v>452300</v>
       </c>
       <c r="F44" s="3">
-        <v>145400</v>
+        <v>142300</v>
       </c>
       <c r="G44" s="3">
-        <v>54500</v>
+        <v>53300</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83400</v>
+        <v>81600</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>761000</v>
+        <v>745000</v>
       </c>
       <c r="E46" s="3">
-        <v>804900</v>
+        <v>787900</v>
       </c>
       <c r="F46" s="3">
-        <v>491200</v>
+        <v>480800</v>
       </c>
       <c r="G46" s="3">
-        <v>115000</v>
+        <v>112600</v>
       </c>
       <c r="H46" s="3">
-        <v>33500</v>
+        <v>32800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="F47" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H47" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>306100</v>
+        <v>299600</v>
       </c>
       <c r="E48" s="3">
-        <v>346200</v>
+        <v>338900</v>
       </c>
       <c r="F48" s="3">
-        <v>108900</v>
+        <v>106600</v>
       </c>
       <c r="G48" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="E49" s="3">
-        <v>331400</v>
+        <v>324400</v>
       </c>
       <c r="F49" s="3">
-        <v>33800</v>
+        <v>33100</v>
       </c>
       <c r="G49" s="3">
         <v>4000</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1096100</v>
+        <v>1073000</v>
       </c>
       <c r="E54" s="3">
-        <v>1495100</v>
+        <v>1463600</v>
       </c>
       <c r="F54" s="3">
-        <v>643400</v>
+        <v>629800</v>
       </c>
       <c r="G54" s="3">
-        <v>135200</v>
+        <v>132400</v>
       </c>
       <c r="H54" s="3">
-        <v>39800</v>
+        <v>39000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>37000</v>
+        <v>36300</v>
       </c>
       <c r="F57" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>244600</v>
+        <v>239400</v>
       </c>
       <c r="E58" s="3">
-        <v>239700</v>
+        <v>234700</v>
       </c>
       <c r="F58" s="3">
-        <v>119900</v>
+        <v>117400</v>
       </c>
       <c r="G58" s="3">
-        <v>43100</v>
+        <v>42200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166200</v>
+        <v>162700</v>
       </c>
       <c r="E59" s="3">
-        <v>76400</v>
+        <v>74700</v>
       </c>
       <c r="F59" s="3">
-        <v>29000</v>
+        <v>28400</v>
       </c>
       <c r="G59" s="3">
         <v>3000</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>433800</v>
+        <v>424700</v>
       </c>
       <c r="E60" s="3">
-        <v>353100</v>
+        <v>345700</v>
       </c>
       <c r="F60" s="3">
-        <v>165000</v>
+        <v>161500</v>
       </c>
       <c r="G60" s="3">
-        <v>48500</v>
+        <v>47500</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>558500</v>
+        <v>546800</v>
       </c>
       <c r="E61" s="3">
-        <v>177000</v>
+        <v>173300</v>
       </c>
       <c r="F61" s="3">
-        <v>55300</v>
+        <v>54100</v>
       </c>
       <c r="G61" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>64300</v>
+        <v>63000</v>
       </c>
       <c r="F62" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1004100</v>
+        <v>982900</v>
       </c>
       <c r="E66" s="3">
-        <v>594500</v>
+        <v>582000</v>
       </c>
       <c r="F66" s="3">
-        <v>224500</v>
+        <v>219800</v>
       </c>
       <c r="G66" s="3">
-        <v>54700</v>
+        <v>53500</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1087300</v>
+        <v>-1064400</v>
       </c>
       <c r="E72" s="3">
-        <v>-241300</v>
+        <v>-236200</v>
       </c>
       <c r="F72" s="3">
-        <v>81600</v>
+        <v>79900</v>
       </c>
       <c r="G72" s="3">
-        <v>-22700</v>
+        <v>-22300</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92000</v>
+        <v>90100</v>
       </c>
       <c r="E76" s="3">
-        <v>900700</v>
+        <v>881700</v>
       </c>
       <c r="F76" s="3">
-        <v>418800</v>
+        <v>410000</v>
       </c>
       <c r="G76" s="3">
-        <v>80500</v>
+        <v>78800</v>
       </c>
       <c r="H76" s="3">
-        <v>39700</v>
+        <v>38900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-892000</v>
+        <v>-873200</v>
       </c>
       <c r="E81" s="3">
-        <v>-688800</v>
+        <v>-674300</v>
       </c>
       <c r="F81" s="3">
-        <v>-130100</v>
+        <v>-127400</v>
       </c>
       <c r="G81" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>481800</v>
+        <v>471600</v>
       </c>
       <c r="E83" s="3">
-        <v>82100</v>
+        <v>80400</v>
       </c>
       <c r="F83" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-317300</v>
+        <v>-310600</v>
       </c>
       <c r="E89" s="3">
-        <v>-705200</v>
+        <v>-690400</v>
       </c>
       <c r="F89" s="3">
-        <v>-146800</v>
+        <v>-143800</v>
       </c>
       <c r="G89" s="3">
-        <v>-85600</v>
+        <v>-83800</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42600</v>
+        <v>-41700</v>
       </c>
       <c r="E91" s="3">
-        <v>-37300</v>
+        <v>-36600</v>
       </c>
       <c r="F91" s="3">
-        <v>-22700</v>
+        <v>-22200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-95700</v>
+        <v>-93700</v>
       </c>
       <c r="E94" s="3">
-        <v>-297400</v>
+        <v>-291100</v>
       </c>
       <c r="F94" s="3">
-        <v>-46100</v>
+        <v>-45100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>482000</v>
+        <v>471800</v>
       </c>
       <c r="E100" s="3">
-        <v>939100</v>
+        <v>919300</v>
       </c>
       <c r="F100" s="3">
-        <v>457700</v>
+        <v>448100</v>
       </c>
       <c r="G100" s="3">
-        <v>103100</v>
+        <v>101000</v>
       </c>
       <c r="H100" s="3">
-        <v>33600</v>
+        <v>32900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83300</v>
+        <v>81500</v>
       </c>
       <c r="E102" s="3">
-        <v>-64500</v>
+        <v>-63100</v>
       </c>
       <c r="F102" s="3">
-        <v>264800</v>
+        <v>259300</v>
       </c>
       <c r="G102" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="H102" s="3">
-        <v>33400</v>
+        <v>32700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
